--- a/GDD/G13_Flujo_Acumulado.xlsx
+++ b/GDD/G13_Flujo_Acumulado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970651B-3502-4721-8392-1822EE28EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109F5907-8B7A-49C4-9D86-B324CEB2D04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1B3535A6-1ED6-8F4A-B46A-D0C9D3BD4C34}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{1B3535A6-1ED6-8F4A-B46A-D0C9D3BD4C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
   <si>
     <t>Tareas en el kanban</t>
   </si>
@@ -333,6 +333,66 @@
   </si>
   <si>
     <t>LL y DH</t>
+  </si>
+  <si>
+    <t>Iteración 3</t>
+  </si>
+  <si>
+    <t>#027</t>
+  </si>
+  <si>
+    <t>#028</t>
+  </si>
+  <si>
+    <t>#029</t>
+  </si>
+  <si>
+    <t>#030</t>
+  </si>
+  <si>
+    <t>#031</t>
+  </si>
+  <si>
+    <t>#032</t>
+  </si>
+  <si>
+    <t>#033</t>
+  </si>
+  <si>
+    <t>#034</t>
+  </si>
+  <si>
+    <t>#035</t>
+  </si>
+  <si>
+    <t>#036</t>
+  </si>
+  <si>
+    <t>Direccionar ataque melee</t>
+  </si>
+  <si>
+    <t>Perfeccionar combate cuerpo a cuerpo</t>
+  </si>
+  <si>
+    <t>Adaptar player para ScriptableObject</t>
+  </si>
+  <si>
+    <t>Pulir mecánica de cambio de personaje (tanque)</t>
+  </si>
+  <si>
+    <t>Mejorar fondo</t>
+  </si>
+  <si>
+    <t>Requisitos de los tests</t>
+  </si>
+  <si>
+    <t>Realizar los tests con jugadores</t>
+  </si>
+  <si>
+    <t>Actualizar GDD v3</t>
+  </si>
+  <si>
+    <t>LL y DB</t>
   </si>
 </sst>
 </file>
@@ -492,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -525,69 +585,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -692,6 +694,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d/m/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d/m/yy"/>
@@ -918,6 +947,9 @@
                 <c:pt idx="25" formatCode="d/m/yy">
                   <c:v>45594</c:v>
                 </c:pt>
+                <c:pt idx="26" formatCode="d/m/yy">
+                  <c:v>45595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1004,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,6 +1156,9 @@
                 <c:pt idx="25" formatCode="d/m/yy">
                   <c:v>45594</c:v>
                 </c:pt>
+                <c:pt idx="26" formatCode="d/m/yy">
+                  <c:v>45595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1206,6 +1244,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1324,6 +1365,9 @@
                 <c:pt idx="25" formatCode="d/m/yy">
                   <c:v>45594</c:v>
                 </c:pt>
+                <c:pt idx="26" formatCode="d/m/yy">
+                  <c:v>45595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1409,6 +1453,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1527,6 +1574,9 @@
                 <c:pt idx="25" formatCode="d/m/yy">
                   <c:v>45594</c:v>
                 </c:pt>
+                <c:pt idx="26" formatCode="d/m/yy">
+                  <c:v>45595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1613,6 +1663,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,21 +4194,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{14F1F05E-4968-9743-B876-58A6FF90A0CE}" name="Registro_proyecto" displayName="Registro_proyecto" ref="A5:H31" totalsRowShown="0" headerRowDxfId="42">
-  <autoFilter ref="A5:H31" xr:uid="{7E41C880-750C-1C4E-95C2-C5F1AF1F48EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{14F1F05E-4968-9743-B876-58A6FF90A0CE}" name="Registro_proyecto" displayName="Registro_proyecto" ref="A5:H41" totalsRowShown="0" headerRowDxfId="39">
+  <autoFilter ref="A5:H41" xr:uid="{7E41C880-750C-1C4E-95C2-C5F1AF1F48EB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{084D4B41-BB1A-F14D-A7DB-261A095623A8}" name="Código Tarea"/>
-    <tableColumn id="2" xr3:uid="{24647FD7-1A93-2944-B3C8-44814247B44B}" name="Por hacer" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{31B7D122-0697-464F-A52D-AD2A1B154186}" name="En proceso" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{DD5FE396-5DF2-594B-B04E-B389248994B0}" name="En revisión" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{091F48CA-66B5-E844-AF12-25E8B3CC31C7}" name="Hecho" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{BD02399F-56F5-FC49-A327-9BF636636597}" name="Estado" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{24647FD7-1A93-2944-B3C8-44814247B44B}" name="Por hacer" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{31B7D122-0697-464F-A52D-AD2A1B154186}" name="En proceso" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{DD5FE396-5DF2-594B-B04E-B389248994B0}" name="En revisión" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{091F48CA-66B5-E844-AF12-25E8B3CC31C7}" name="Hecho" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{BD02399F-56F5-FC49-A327-9BF636636597}" name="Estado" dataDxfId="34">
       <calculatedColumnFormula>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD25D361-3E57-BB44-B447-F9ABDB7B71ED}" name="Tiempo de Entrega" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{FD25D361-3E57-BB44-B447-F9ABDB7B71ED}" name="Tiempo de Entrega" dataDxfId="33">
       <calculatedColumnFormula>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3D1C76A-DFF2-F845-B4A9-C56DEF71A973}" name="Tiempo de Ciclo" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{B3D1C76A-DFF2-F845-B4A9-C56DEF71A973}" name="Tiempo de Ciclo" dataDxfId="32">
       <calculatedColumnFormula>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4164,27 +4217,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB45E45C-F67E-DB4A-8819-4A5AD06C273C}" name="Tareas_proyecto" displayName="Tareas_proyecto" ref="J5:Q31" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="J5:Q31" xr:uid="{6D705243-7643-854C-B19C-9823DCEBE549}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB45E45C-F67E-DB4A-8819-4A5AD06C273C}" name="Tareas_proyecto" displayName="Tareas_proyecto" ref="J5:Q82" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="J5:Q82" xr:uid="{6D705243-7643-854C-B19C-9823DCEBE549}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{243BBE1A-6B07-0C47-8575-1D46C9218228}" name="Fecha" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{243BBE1A-6B07-0C47-8575-1D46C9218228}" name="Fecha" dataDxfId="30">
       <calculatedColumnFormula>IF(ISNUMBER(J5),J5+1,Registro_proyecto[[#This Row],[Por hacer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7FECE11E-0B7D-674D-9F0A-8A54F0CC3E37}" name="Por hacer" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{7FECE11E-0B7D-674D-9F0A-8A54F0CC3E37}" name="Por hacer" dataDxfId="29">
       <calculatedColumnFormula>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K5),K5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{177DF3AC-2CE4-DA43-A516-73A28C601535}" name="En proceso" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{177DF3AC-2CE4-DA43-A516-73A28C601535}" name="En proceso" dataDxfId="28">
       <calculatedColumnFormula>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L5),L5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1DEA09EE-526C-154F-B178-B0309550FE4D}" name="En revisión" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{1DEA09EE-526C-154F-B178-B0309550FE4D}" name="En revisión" dataDxfId="27">
       <calculatedColumnFormula>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M5),M5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AE0CA32D-6E83-9049-8EB3-9F2A5FF4A971}" name="Hecho" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{AE0CA32D-6E83-9049-8EB3-9F2A5FF4A971}" name="Hecho" dataDxfId="26">
       <calculatedColumnFormula>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N5),N5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{34356E9A-4335-1A41-9B0E-26DD630F2ED4}" name="Límite WIP - Proceso" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E557E1D9-7937-DE49-A6B4-AEF7A0E22CFE}" name="Límite WIP - Revisión" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{2E11DB40-35A0-E34C-90C3-B99F6CF7E2C6}" name="WIP" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{34356E9A-4335-1A41-9B0E-26DD630F2ED4}" name="Límite WIP - Proceso" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{E557E1D9-7937-DE49-A6B4-AEF7A0E22CFE}" name="Límite WIP - Revisión" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{2E11DB40-35A0-E34C-90C3-B99F6CF7E2C6}" name="WIP" dataDxfId="23">
       <calculatedColumnFormula>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4193,21 +4246,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E41C880-750C-1C4E-95C2-C5F1AF1F48EB}" name="Registro_ejemplo" displayName="Registro_ejemplo" ref="A5:H27" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E41C880-750C-1C4E-95C2-C5F1AF1F48EB}" name="Registro_ejemplo" displayName="Registro_ejemplo" ref="A5:H27" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A5:H27" xr:uid="{7E41C880-750C-1C4E-95C2-C5F1AF1F48EB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{180F83F4-9428-7446-AC41-ABD52E62F91F}" name="Código Tarea"/>
-    <tableColumn id="2" xr3:uid="{463B122F-62DA-954F-95FD-331D7FAAB202}" name="Por hacer" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{82E8C085-8FCA-FB44-A660-9397FDACB474}" name="En proceso" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{87B874D2-CF25-134C-8FDA-70DA772E6914}" name="En revisión" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{9730A58C-2241-8445-A952-86CBA5D59D72}" name="Hecho" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{6CB970B5-A47E-4A49-96CA-7231F849B790}" name="Estado" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{463B122F-62DA-954F-95FD-331D7FAAB202}" name="Por hacer" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{82E8C085-8FCA-FB44-A660-9397FDACB474}" name="En proceso" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{87B874D2-CF25-134C-8FDA-70DA772E6914}" name="En revisión" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{9730A58C-2241-8445-A952-86CBA5D59D72}" name="Hecho" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{6CB970B5-A47E-4A49-96CA-7231F849B790}" name="Estado" dataDxfId="17">
       <calculatedColumnFormula>IF(NOT(ISBLANK(Registro_ejemplo[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_ejemplo[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_ejemplo[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{77F88428-C7D0-2E40-A482-1F2659D41A55}" name="Tiempo de Entrega" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{77F88428-C7D0-2E40-A482-1F2659D41A55}" name="Tiempo de Entrega" dataDxfId="16">
       <calculatedColumnFormula>IF(Registro_ejemplo[[#This Row],[Hecho]]="","",Registro_ejemplo[[#This Row],[Hecho]]-Registro_ejemplo[[#This Row],[Por hacer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1A2EEA40-7A95-BE4A-B265-911F543B8A70}" name="Tiempo de Ciclo" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{1A2EEA40-7A95-BE4A-B265-911F543B8A70}" name="Tiempo de Ciclo" dataDxfId="15">
       <calculatedColumnFormula>IF(Registro_ejemplo[[#This Row],[Hecho]]="","",Registro_ejemplo[[#This Row],[Hecho]]-Registro_ejemplo[[#This Row],[En proceso]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4216,27 +4269,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D705243-7643-854C-B19C-9823DCEBE549}" name="Tareas_ejemplo" displayName="Tareas_ejemplo" ref="J5:Q32" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D705243-7643-854C-B19C-9823DCEBE549}" name="Tareas_ejemplo" displayName="Tareas_ejemplo" ref="J5:Q32" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="J5:Q32" xr:uid="{6D705243-7643-854C-B19C-9823DCEBE549}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{11685733-81D4-2345-9562-4005950B51D3}" name="Fecha" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{11685733-81D4-2345-9562-4005950B51D3}" name="Fecha" dataDxfId="13">
       <calculatedColumnFormula>IF(ISNUMBER(J5),J5+1,Registro_ejemplo[[#This Row],[Por hacer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B912A3E8-D2F6-F04B-B84F-A941361336E8}" name="Por hacer" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{B912A3E8-D2F6-F04B-B84F-A941361336E8}" name="Por hacer" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF(Registro_ejemplo[Por hacer],Tareas_ejemplo[[#This Row],[Fecha]])-COUNTIF(Registro_ejemplo[En proceso],Tareas_ejemplo[[#This Row],[Fecha]])+IF(ISNUMBER(K5),K5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EE43C000-6A54-7542-9D18-FF444D82BACE}" name="En proceso" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{EE43C000-6A54-7542-9D18-FF444D82BACE}" name="En proceso" dataDxfId="11">
       <calculatedColumnFormula>COUNTIF(Registro_ejemplo[En proceso],Tareas_ejemplo[[#This Row],[Fecha]])-COUNTIF(Registro_ejemplo[En revisión],Tareas_ejemplo[[#This Row],[Fecha]])+IF(ISNUMBER(L5),L5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6D72137-FC00-2F43-8A68-175D48196E52}" name="En revisión" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{C6D72137-FC00-2F43-8A68-175D48196E52}" name="En revisión" dataDxfId="10">
       <calculatedColumnFormula>COUNTIF(Registro_ejemplo[En revisión],Tareas_ejemplo[[#This Row],[Fecha]])-COUNTIF(Registro_ejemplo[Hecho],Tareas_ejemplo[[#This Row],[Fecha]])+IF(ISNUMBER(M5),M5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9B9BA2F7-AAFA-C346-A930-6F5C5016CC15}" name="Hecho" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{9B9BA2F7-AAFA-C346-A930-6F5C5016CC15}" name="Hecho" dataDxfId="9">
       <calculatedColumnFormula>COUNTIF(Registro_ejemplo[Hecho],Tareas_ejemplo[[#This Row],[Fecha]])+IF(ISNUMBER(N5),N5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ECF68C0B-9732-BD49-9804-B9B3CBC8C9D2}" name="Límite WIP - Proceso" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{B90BAE6F-C214-294C-8B49-F1FF950AB5F4}" name="Límite WIP - Revisión" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{7E2E67BB-8B4A-C845-9F0D-D7215D486CB2}" name="WIP" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{ECF68C0B-9732-BD49-9804-B9B3CBC8C9D2}" name="Límite WIP - Proceso" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{B90BAE6F-C214-294C-8B49-F1FF950AB5F4}" name="Límite WIP - Revisión" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{7E2E67BB-8B4A-C845-9F0D-D7215D486CB2}" name="WIP" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tareas_ejemplo[[#This Row],[En proceso]]+Tareas_ejemplo[[#This Row],[En revisión]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4621,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E95B37-9939-4DF1-929C-AE366762D5D0}">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4943,9 +4996,127 @@
         <v>71</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4954,10 +5125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912BA928-A56A-8A41-8993-334C4E65BC79}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="53" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5883,7 +6054,7 @@
       <c r="E21" s="11">
         <v>45589</v>
       </c>
-      <c r="F21" s="20" t="str">
+      <c r="F21" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -5900,15 +6071,15 @@
         <f>IF(ISNUMBER(J20),J20+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45584</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K20),K20,0)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L20),L20,0)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M20),M20,0)</f>
         <v>0</v>
       </c>
@@ -5916,9 +6087,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N20),N20,0)</f>
         <v>14</v>
       </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20">
+      <c r="Q21">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>1</v>
       </c>
@@ -5939,7 +6108,7 @@
       <c r="E22" s="11">
         <v>45592</v>
       </c>
-      <c r="F22" s="20" t="str">
+      <c r="F22" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -5956,15 +6125,15 @@
         <f>IF(ISNUMBER(J21),J21+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45585</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K21),K21,0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L21),L21,0)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M21),M21,0)</f>
         <v>0</v>
       </c>
@@ -5972,9 +6141,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N21),N21,0)</f>
         <v>14</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20">
+      <c r="Q22">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>1</v>
       </c>
@@ -5995,7 +6162,7 @@
       <c r="E23" s="11">
         <v>45595</v>
       </c>
-      <c r="F23" s="20" t="str">
+      <c r="F23" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6012,15 +6179,15 @@
         <f>IF(ISNUMBER(J22),J22+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45586</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K22),K22,0)</f>
         <v>11</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L22),L22,0)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M22),M22,0)</f>
         <v>0</v>
       </c>
@@ -6028,9 +6195,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N22),N22,0)</f>
         <v>14</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20">
+      <c r="Q23">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>1</v>
       </c>
@@ -6051,7 +6216,7 @@
       <c r="E24" s="11">
         <v>45597</v>
       </c>
-      <c r="F24" s="20" t="str">
+      <c r="F24" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6068,15 +6233,15 @@
         <f>IF(ISNUMBER(J23),J23+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45587</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K23),K23,0)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L23),L23,0)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M23),M23,0)</f>
         <v>2</v>
       </c>
@@ -6084,9 +6249,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N23),N23,0)</f>
         <v>14</v>
       </c>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20">
+      <c r="Q24">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>2</v>
       </c>
@@ -6101,34 +6264,38 @@
       <c r="C25" s="11">
         <v>45600</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="20" t="str">
+      <c r="D25" s="11">
+        <v>45635</v>
+      </c>
+      <c r="E25" s="11">
+        <v>45636</v>
+      </c>
+      <c r="F25" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
-        <v>En proceso</v>
-      </c>
-      <c r="G25" s="3" t="str">
+        <v>Hecho</v>
+      </c>
+      <c r="G25" s="3">
         <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
-        <v/>
-      </c>
-      <c r="H25" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3">
         <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="11">
         <f>IF(ISNUMBER(J24),J24+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45588</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K24),K24,0)</f>
         <v>10</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L24),L24,0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M24),M24,0)</f>
         <v>2</v>
       </c>
@@ -6136,9 +6303,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N24),N24,0)</f>
         <v>14</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20">
+      <c r="Q25">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>2</v>
       </c>
@@ -6159,7 +6324,7 @@
       <c r="E26" s="11">
         <v>45604</v>
       </c>
-      <c r="F26" s="20" t="str">
+      <c r="F26" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6176,15 +6341,15 @@
         <f>IF(ISNUMBER(J25),J25+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45589</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K25),K25,0)</f>
         <v>10</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L25),L25,0)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M25),M25,0)</f>
         <v>0</v>
       </c>
@@ -6192,9 +6357,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N25),N25,0)</f>
         <v>16</v>
       </c>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20">
+      <c r="Q26">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>0</v>
       </c>
@@ -6215,7 +6378,7 @@
       <c r="E27" s="11">
         <v>45602</v>
       </c>
-      <c r="F27" s="20" t="str">
+      <c r="F27" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6232,15 +6395,15 @@
         <f>IF(ISNUMBER(J26),J26+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45590</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K26),K26,0)</f>
         <v>10</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L26),L26,0)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M26),M26,0)</f>
         <v>0</v>
       </c>
@@ -6248,9 +6411,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N26),N26,0)</f>
         <v>16</v>
       </c>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20">
+      <c r="Q27">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>0</v>
       </c>
@@ -6274,7 +6435,7 @@
       <c r="E28" s="11">
         <v>45605</v>
       </c>
-      <c r="F28" s="20" t="str">
+      <c r="F28" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6290,15 +6451,15 @@
         <f>IF(ISNUMBER(J27),J27+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45591</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K27),K27,0)</f>
         <v>9</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L27),L27,0)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M27),M27,0)</f>
         <v>0</v>
       </c>
@@ -6306,9 +6467,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N27),N27,0)</f>
         <v>16</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20">
+      <c r="Q28">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>1</v>
       </c>
@@ -6317,18 +6476,18 @@
       </c>
       <c r="T28" s="2">
         <f>IFERROR(AVERAGE(Registro_proyecto[Tiempo de Entrega]),"-")</f>
-        <v>11.04</v>
+        <v>12.138888888888889</v>
       </c>
       <c r="U28" t="s">
         <v>39</v>
       </c>
       <c r="W28" t="str">
         <f>IFERROR("Tiempo de Entrega máximo (tarea "&amp;_xlfn.XLOOKUP(X28,Registro_proyecto[Tiempo de Entrega],Registro_proyecto[Código Tarea])&amp;"):","Tiempo de Entrega máximo:")</f>
-        <v>Tiempo de Entrega máximo (tarea #026):</v>
+        <v>Tiempo de Entrega máximo (tarea #020):</v>
       </c>
       <c r="X28">
         <f>MAX(Registro_proyecto[Tiempo de Entrega])</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="Y28" t="s">
         <v>39</v>
@@ -6361,7 +6520,7 @@
       <c r="E29" s="11">
         <v>45607</v>
       </c>
-      <c r="F29" s="20" t="str">
+      <c r="F29" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6377,15 +6536,15 @@
         <f>IF(ISNUMBER(J28),J28+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45592</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K28),K28,0)</f>
         <v>9</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L28),L28,0)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M28),M28,0)</f>
         <v>0</v>
       </c>
@@ -6393,9 +6552,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N28),N28,0)</f>
         <v>17</v>
       </c>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20">
+      <c r="Q29">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>0</v>
       </c>
@@ -6404,18 +6561,18 @@
       </c>
       <c r="T29" s="2">
         <f>IFERROR(AVERAGE(Registro_proyecto[Tiempo de Ciclo]),"-")</f>
-        <v>2.72</v>
+        <v>4.0277777777777777</v>
       </c>
       <c r="U29" t="s">
         <v>39</v>
       </c>
       <c r="W29" t="str">
         <f>IFERROR("Tiempo de Ciclo máximo (tarea "&amp;_xlfn.XLOOKUP(X29,Registro_proyecto[Tiempo de Ciclo],Registro_proyecto[Código Tarea])&amp;"):","Tiempo de Ciclo máximo:")</f>
-        <v>Tiempo de Ciclo máximo (tarea #008):</v>
+        <v>Tiempo de Ciclo máximo (tarea #020):</v>
       </c>
       <c r="X29">
         <f>MAX(Registro_proyecto[Tiempo de Ciclo])</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s">
         <v>39</v>
@@ -6448,7 +6605,7 @@
       <c r="E30" s="11">
         <v>45607</v>
       </c>
-      <c r="F30" s="20" t="str">
+      <c r="F30" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6464,15 +6621,15 @@
         <f>IF(ISNUMBER(J29),J29+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45593</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K29),K29,0)</f>
         <v>8</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L29),L29,0)</f>
         <v>1</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M29),M29,0)</f>
         <v>0</v>
       </c>
@@ -6480,9 +6637,7 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N29),N29,0)</f>
         <v>17</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20">
+      <c r="Q30">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>1</v>
       </c>
@@ -6491,7 +6646,7 @@
       </c>
       <c r="T30" s="2">
         <f>AVERAGE(Tareas_proyecto[WIP])</f>
-        <v>1.8846153846153846</v>
+        <v>1.8831168831168832</v>
       </c>
       <c r="U30" t="s">
         <v>40</v>
@@ -6535,7 +6690,7 @@
       <c r="E31" s="11">
         <v>45610</v>
       </c>
-      <c r="F31" s="20" t="str">
+      <c r="F31" t="str">
         <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
         <v>Hecho</v>
       </c>
@@ -6551,15 +6706,15 @@
         <f>IF(ISNUMBER(J30),J30+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
         <v>45594</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31">
         <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K30),K30,0)</f>
         <v>8</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31">
         <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L30),L30,0)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31">
         <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M30),M30,0)</f>
         <v>0</v>
       </c>
@@ -6567,31 +6722,1621 @@
         <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N30),N30,0)</f>
         <v>17</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20">
+      <c r="Q31">
         <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="J32" s="1"/>
-      <c r="N32" s="3"/>
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C32" s="11">
+        <v>45628</v>
+      </c>
+      <c r="D32" s="11">
+        <v>45632</v>
+      </c>
+      <c r="E32" s="11">
+        <v>45633</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G32" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>19</v>
+      </c>
+      <c r="H32" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>5</v>
+      </c>
+      <c r="J32" s="11">
+        <f>IF(ISNUMBER(J31),J31+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45595</v>
+      </c>
+      <c r="K32">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K31),K31,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L31),L31,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M31),M31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N31),N31,0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C33" s="11">
+        <v>45616</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45621</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45622</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G33" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>6</v>
+      </c>
+      <c r="J33" s="11">
+        <f>IF(ISNUMBER(J32),J32+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45596</v>
+      </c>
+      <c r="K33">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K32),K32,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L32),L32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M32),M32,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N32),N32,0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q33">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C34" s="11">
+        <v>45622</v>
+      </c>
+      <c r="D34" s="11">
+        <v>45625</v>
+      </c>
+      <c r="E34" s="11">
+        <v>45625</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G34" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>11</v>
+      </c>
+      <c r="H34" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>3</v>
+      </c>
+      <c r="J34" s="11">
+        <f>IF(ISNUMBER(J33),J33+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45597</v>
+      </c>
+      <c r="K34">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K33),K33,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L33),L33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M33),M33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N33),N33,0)</f>
+        <v>19</v>
+      </c>
+      <c r="Q34">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C35" s="11">
+        <v>45616</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45619</v>
+      </c>
+      <c r="E35" s="11">
+        <v>45620</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G35" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>4</v>
+      </c>
+      <c r="J35" s="11">
+        <f>IF(ISNUMBER(J34),J34+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45598</v>
+      </c>
+      <c r="K35">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K34),K34,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L34),L34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M34),M34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N34),N34,0)</f>
+        <v>19</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C36" s="11">
+        <v>45625</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45631</v>
+      </c>
+      <c r="E36" s="11">
+        <v>45632</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G36" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>18</v>
+      </c>
+      <c r="H36" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>7</v>
+      </c>
+      <c r="J36" s="11">
+        <f>IF(ISNUMBER(J35),J35+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45599</v>
+      </c>
+      <c r="K36">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K35),K35,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L35),L35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M35),M35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N35),N35,0)</f>
+        <v>19</v>
+      </c>
+      <c r="Q36">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C37" s="11">
+        <v>45618</v>
+      </c>
+      <c r="D37" s="11">
+        <v>45622</v>
+      </c>
+      <c r="E37" s="11">
+        <v>45623</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G37" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>9</v>
+      </c>
+      <c r="H37" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>5</v>
+      </c>
+      <c r="J37" s="11">
+        <f>IF(ISNUMBER(J36),J36+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45600</v>
+      </c>
+      <c r="K37">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K36),K36,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L36),L36,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M36),M36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N36),N36,0)</f>
+        <v>19</v>
+      </c>
+      <c r="Q37">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="11">
+        <v>45614</v>
+      </c>
+      <c r="C38" s="11">
+        <v>45618</v>
+      </c>
+      <c r="D38" s="11">
+        <v>45621</v>
+      </c>
+      <c r="E38" s="11">
+        <v>45621</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G38" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>7</v>
+      </c>
+      <c r="H38" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>3</v>
+      </c>
+      <c r="J38" s="11">
+        <f>IF(ISNUMBER(J37),J37+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45601</v>
+      </c>
+      <c r="K38">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K37),K37,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L37),L37,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M37),M37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N37),N37,0)</f>
+        <v>19</v>
+      </c>
+      <c r="Q38">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="11">
+        <v>45625</v>
+      </c>
+      <c r="C39" s="11">
+        <v>45631</v>
+      </c>
+      <c r="D39" s="11">
+        <v>45634</v>
+      </c>
+      <c r="E39" s="11">
+        <v>45634</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G39" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>9</v>
+      </c>
+      <c r="H39" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="11">
+        <f>IF(ISNUMBER(J38),J38+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45602</v>
+      </c>
+      <c r="K39">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K38),K38,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L38),L38,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M38),M38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N38),N38,0)</f>
+        <v>20</v>
+      </c>
+      <c r="Q39">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="11">
+        <v>45625</v>
+      </c>
+      <c r="C40" s="11">
+        <v>45634</v>
+      </c>
+      <c r="D40" s="11">
+        <v>45636</v>
+      </c>
+      <c r="E40" s="11">
+        <v>45636</v>
+      </c>
+      <c r="F40" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G40" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>11</v>
+      </c>
+      <c r="H40" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>2</v>
+      </c>
+      <c r="J40" s="11">
+        <f>IF(ISNUMBER(J39),J39+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45603</v>
+      </c>
+      <c r="K40">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K39),K39,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L39),L39,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M39),M39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N39),N39,0)</f>
+        <v>20</v>
+      </c>
+      <c r="Q40">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="11">
+        <v>45625</v>
+      </c>
+      <c r="C41" s="11">
+        <v>45635</v>
+      </c>
+      <c r="D41" s="11">
+        <v>45638</v>
+      </c>
+      <c r="E41" s="11">
+        <v>45638</v>
+      </c>
+      <c r="F41" t="str">
+        <f>IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[Hecho]])),"Hecho",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En revisión]])),"En revisión",IF(NOT(ISBLANK(Registro_proyecto[[#This Row],[En proceso]])),"En proceso","Por Hacer")))</f>
+        <v>Hecho</v>
+      </c>
+      <c r="G41" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>13</v>
+      </c>
+      <c r="H41" s="3">
+        <f>IF(Registro_proyecto[[#This Row],[Hecho]]="","",Registro_proyecto[[#This Row],[Hecho]]-Registro_proyecto[[#This Row],[En proceso]])</f>
+        <v>3</v>
+      </c>
+      <c r="J41" s="11">
+        <f>IF(ISNUMBER(J40),J40+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45604</v>
+      </c>
+      <c r="K41">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K40),K40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L40),L40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M40),M40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N40),N40,0)</f>
+        <v>21</v>
+      </c>
+      <c r="Q41">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J42" s="11">
+        <f>IF(ISNUMBER(J41),J41+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45605</v>
+      </c>
+      <c r="K42">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K41),K41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L41),L41,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M41),M41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N41),N41,0)</f>
+        <v>22</v>
+      </c>
+      <c r="Q42">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J43" s="11">
+        <f>IF(ISNUMBER(J42),J42+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45606</v>
+      </c>
+      <c r="K43">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K42),K42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L42),L42,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M42),M42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N42),N42,0)</f>
+        <v>22</v>
+      </c>
+      <c r="Q43">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J44" s="11">
+        <f>IF(ISNUMBER(J43),J43+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45607</v>
+      </c>
+      <c r="K44">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K43),K43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L43),L43,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M43),M43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N43),N43,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q44">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J45" s="11">
+        <f>IF(ISNUMBER(J44),J44+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45608</v>
+      </c>
+      <c r="K45">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K44),K44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L44),L44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M44),M44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N44),N44,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q45">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J46" s="11">
+        <f>IF(ISNUMBER(J45),J45+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45609</v>
+      </c>
+      <c r="K46">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K45),K45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L45),L45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M45),M45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N45),N45,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q46">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J47" s="11">
+        <f>IF(ISNUMBER(J46),J46+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45610</v>
+      </c>
+      <c r="K47">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K46),K46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L46),L46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M46),M46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N46),N46,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q47">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J48" s="11">
+        <f>IF(ISNUMBER(J47),J47+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45611</v>
+      </c>
+      <c r="K48">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K47),K47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L47),L47,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M47),M47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N47),N47,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q48">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J49" s="11">
+        <f>IF(ISNUMBER(J48),J48+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45612</v>
+      </c>
+      <c r="K49">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K48),K48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L48),L48,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M48),M48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N48),N48,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q49">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J50" s="11">
+        <f>IF(ISNUMBER(J49),J49+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45613</v>
+      </c>
+      <c r="K50">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K49),K49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L49),L49,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M49),M49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N49),N49,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q50">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J51" s="11">
+        <f>IF(ISNUMBER(J50),J50+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45614</v>
+      </c>
+      <c r="K51">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K50),K50,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L50),L50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M50),M50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N50),N50,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q51">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J52" s="11">
+        <f>IF(ISNUMBER(J51),J51+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45615</v>
+      </c>
+      <c r="K52">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K51),K51,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L51),L51,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M51),M51,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N51),N51,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q52">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J53" s="11">
+        <f>IF(ISNUMBER(J52),J52+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45616</v>
+      </c>
+      <c r="K53">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K52),K52,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L52),L52,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M52),M52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N52),N52,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q53">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J54" s="11">
+        <f>IF(ISNUMBER(J53),J53+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45617</v>
+      </c>
+      <c r="K54">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K53),K53,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L53),L53,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M53),M53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N53),N53,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q54">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J55" s="11">
+        <f>IF(ISNUMBER(J54),J54+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45618</v>
+      </c>
+      <c r="K55">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K54),K54,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L54),L54,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M54),M54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N54),N54,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q55">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J56" s="11">
+        <f>IF(ISNUMBER(J55),J55+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45619</v>
+      </c>
+      <c r="K56">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K55),K55,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L55),L55,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M55),M55,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N55),N55,0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q56">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J57" s="11">
+        <f>IF(ISNUMBER(J56),J56+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45620</v>
+      </c>
+      <c r="K57">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K56),K56,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L56),L56,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M56),M56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N56),N56,0)</f>
+        <v>26</v>
+      </c>
+      <c r="Q57">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J58" s="11">
+        <f>IF(ISNUMBER(J57),J57+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45621</v>
+      </c>
+      <c r="K58">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K57),K57,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L57),L57,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M57),M57,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N58" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N57),N57,0)</f>
+        <v>27</v>
+      </c>
+      <c r="Q58">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J59" s="11">
+        <f>IF(ISNUMBER(J58),J58+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45622</v>
+      </c>
+      <c r="K59">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K58),K58,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L58),L58,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M58),M58,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N58),N58,0)</f>
+        <v>28</v>
+      </c>
+      <c r="Q59">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J60" s="11">
+        <f>IF(ISNUMBER(J59),J59+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45623</v>
+      </c>
+      <c r="K60">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K59),K59,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L59),L59,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M59),M59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N59),N59,0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q60">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J61" s="11">
+        <f>IF(ISNUMBER(J60),J60+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45624</v>
+      </c>
+      <c r="K61">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K60),K60,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L60),L60,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M60),M60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N60),N60,0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q61">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J62" s="11">
+        <f>IF(ISNUMBER(J61),J61+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45625</v>
+      </c>
+      <c r="K62">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K61),K61,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L61),L61,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M61),M61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N61),N61,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q62">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J63" s="11">
+        <f>IF(ISNUMBER(J62),J62+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45626</v>
+      </c>
+      <c r="K63">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K62),K62,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L62),L62,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M62),M62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N62),N62,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q63">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J64" s="11">
+        <f>IF(ISNUMBER(J63),J63+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45627</v>
+      </c>
+      <c r="K64">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K63),K63,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L63),L63,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M63),M63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N63),N63,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q64">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J65" s="11">
+        <f>IF(ISNUMBER(J64),J64+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45628</v>
+      </c>
+      <c r="K65">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K64),K64,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L64),L64,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M64),M64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N64),N64,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q65">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J66" s="11">
+        <f>IF(ISNUMBER(J65),J65+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45629</v>
+      </c>
+      <c r="K66">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K65),K65,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L65),L65,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M65),M65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N65),N65,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q66">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J67" s="11">
+        <f>IF(ISNUMBER(J66),J66+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45630</v>
+      </c>
+      <c r="K67">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K66),K66,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L66),L66,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M66),M66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N66),N66,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q67">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J68" s="11">
+        <f>IF(ISNUMBER(J67),J67+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45631</v>
+      </c>
+      <c r="K68">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K67),K67,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L67),L67,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M67),M67,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N67),N67,0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q68">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J69" s="11">
+        <f>IF(ISNUMBER(J68),J68+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45632</v>
+      </c>
+      <c r="K69">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K68),K68,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L68),L68,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M68),M68,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N68),N68,0)</f>
+        <v>31</v>
+      </c>
+      <c r="Q69">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J70" s="11">
+        <f>IF(ISNUMBER(J69),J69+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45633</v>
+      </c>
+      <c r="K70">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K69),K69,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L69),L69,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M69),M69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N69),N69,0)</f>
+        <v>32</v>
+      </c>
+      <c r="Q70">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J71" s="11">
+        <f>IF(ISNUMBER(J70),J70+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45634</v>
+      </c>
+      <c r="K71">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K70),K70,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L70),L70,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M70),M70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N70),N70,0)</f>
+        <v>33</v>
+      </c>
+      <c r="Q71">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J72" s="11">
+        <f>IF(ISNUMBER(J71),J71+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45635</v>
+      </c>
+      <c r="K72">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K71),K71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L71),L71,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M71),M71,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N72" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N71),N71,0)</f>
+        <v>33</v>
+      </c>
+      <c r="Q72">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J73" s="11">
+        <f>IF(ISNUMBER(J72),J72+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45636</v>
+      </c>
+      <c r="K73">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K72),K72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L72),L72,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M72),M72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N72),N72,0)</f>
+        <v>35</v>
+      </c>
+      <c r="Q73">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J74" s="11">
+        <f>IF(ISNUMBER(J73),J73+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45637</v>
+      </c>
+      <c r="K74">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K73),K73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L73),L73,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M73),M73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N73),N73,0)</f>
+        <v>35</v>
+      </c>
+      <c r="Q74">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J75" s="11">
+        <f>IF(ISNUMBER(J74),J74+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45638</v>
+      </c>
+      <c r="K75">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K74),K74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L74),L74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M74),M74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N74),N74,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q75">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J76" s="11">
+        <f>IF(ISNUMBER(J75),J75+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45639</v>
+      </c>
+      <c r="K76">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K75),K75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L75),L75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M75),M75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N75),N75,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q76">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J77" s="11">
+        <f>IF(ISNUMBER(J76),J76+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45640</v>
+      </c>
+      <c r="K77">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K76),K76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L76),L76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M76),M76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N76),N76,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q77">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J78" s="11">
+        <f>IF(ISNUMBER(J77),J77+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45641</v>
+      </c>
+      <c r="K78">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K77),K77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L77),L77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M77),M77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N77),N77,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q78">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J79" s="11">
+        <f>IF(ISNUMBER(J78),J78+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45642</v>
+      </c>
+      <c r="K79">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K78),K78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L78),L78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M78),M78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N78),N78,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q79">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J80" s="11">
+        <f>IF(ISNUMBER(J79),J79+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45643</v>
+      </c>
+      <c r="K80">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K79),K79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L79),L79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M79),M79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N79),N79,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q80">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J81" s="11">
+        <f>IF(ISNUMBER(J80),J80+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45644</v>
+      </c>
+      <c r="K81">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K80),K80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L80),L80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M80),M80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N80),N80,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q81">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J82" s="11">
+        <f>IF(ISNUMBER(J81),J81+1,Registro_proyecto[[#This Row],[Por hacer]])</f>
+        <v>45645</v>
+      </c>
+      <c r="K82">
+        <f>COUNTIF(Registro_proyecto[Por hacer],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(K81),K81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f>COUNTIF(Registro_proyecto[En proceso],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(L81),L81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f>COUNTIF(Registro_proyecto[En revisión],Tareas_proyecto[[#This Row],[Fecha]])-COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(M81),M81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <f>COUNTIF(Registro_proyecto[Hecho],Tareas_proyecto[[#This Row],[Fecha]])+IF(ISNUMBER(N81),N81,0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q82">
+        <f>SUM(Tareas_proyecto[[#This Row],[En proceso]]+Tareas_proyecto[[#This Row],[En revisión]])</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L6:L31">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="L6:L82">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>$O6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="M6:M82">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>$P6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q31">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="Q6:Q82">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>$O6+$P6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8291,17 +10036,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L6:L32">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$O6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M32">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$P6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q32">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>$O6+$P6</formula>
     </cfRule>
   </conditionalFormatting>
